--- a/data/trans_camb/P31_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_4_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-2,28</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 3,3</t>
+          <t>-6,62; 5,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; -1,35</t>
+          <t>-12,66; 0,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,14</t>
+          <t>-7,93; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,23</t>
+          <t>-3,77; 2,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,86</t>
+          <t>-6,06; 0,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,44; -1,13</t>
+          <t>-8,72; 0,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; 2,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-8,06; -0,56</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 1,3</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,31%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,14%</t>
+          <t>-6,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,43%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,16%</t>
+          <t>-2,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,84%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,37%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,58</t>
+          <t>-6,96; 5,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -1,46</t>
+          <t>-13,36; 0,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,25</t>
+          <t>-8,33; 5,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 2,29</t>
+          <t>-3,83; 2,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,97</t>
+          <t>-6,15; 0,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -1,22</t>
+          <t>-8,9; 0,84</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 2,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-8,31; -0,58</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 1,31</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 9,61</t>
+          <t>-15,48; 4,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 8,36</t>
+          <t>-9,61; 5,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,26</t>
+          <t>-14,52; 3,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,28</t>
+          <t>-0,87; 7,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,72</t>
+          <t>-0,67; 7,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 5,71</t>
+          <t>-1,37; 7,24</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 4,42</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 5,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 3,06</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>-4,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>-5,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 11,4</t>
+          <t>-16,7; 4,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 10,04</t>
+          <t>-10,07; 6,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,88</t>
+          <t>-15,57; 3,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 7,94</t>
+          <t>-0,85; 8,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 7,54</t>
+          <t>-0,68; 8,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,4</t>
+          <t>-1,38; 7,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; 4,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 5,86</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 3,36</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 16,25</t>
+          <t>-16,46; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 16,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>-35,8; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 0,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-8,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 20,15</t>
+          <t>-16,46; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 19,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,05</t>
+          <t>-35,8; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 10,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 0,0</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-15,43; 0,0</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,82</t>
+          <t>-7,66; 1,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,91</t>
+          <t>-8,97; 0,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,71</t>
+          <t>-8,75; 0,92</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 2,96</t>
+          <t>-1,47; 3,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,2</t>
+          <t>-2,6; 2,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,39</t>
+          <t>-3,33; 2,23</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 1,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 1,08</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 0,69</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-2,54%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-3,89%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,57%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1,04%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-0,21%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 5,4</t>
+          <t>-8,07; 1,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,1</t>
+          <t>-9,55; 0,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,91</t>
+          <t>-9,16; 0,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,12</t>
+          <t>-1,49; 3,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,44</t>
+          <t>-2,64; 2,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,48</t>
+          <t>-3,41; 2,34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 1,96</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 1,14</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-5,37; 0,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
